--- a/test/templates/with-diagramm.xlsx
+++ b/test/templates/with-diagramm.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F42ACB4-2BC3-4652-9AE3-4DC127E7D027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A768C5F-0E59-41C1-A8AD-61529641B71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,7 +109,7 @@
     <t>Asset Cost, $</t>
   </si>
   <si>
-    <t>[[assets]]{{serialNumber}}</t>
+    <t>[[Assets]]{{serialNumber}}</t>
   </si>
   <si>
     <t>[[jobs]]{{title}}</t>
@@ -182,6 +182,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="12">
     <font>
       <sz val="10"/>
@@ -345,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -393,6 +397,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,7 +511,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>[[assets]]{{serialNumber}}</c:v>
+                  <c:v>[[Assets]]{{serialNumber}}</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -606,7 +612,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>[[assets]]{{serialNumber}}</c:v>
+                  <c:v>[[Assets]]{{serialNumber}}</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1458,6 +1464,100 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6119E705-197C-A3DF-077A-33B6E4EF43C3}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8A26A5FC-A6BF-C288-3D1F-487D2A38EDBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12115800" y="266700"/>
+          <a:ext cx="1457325" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB021ED9-CFE1-B73C-5371-7299953966C3}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6119E705-197C-A3DF-077A-33B6E4EF43C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12096750" y="1219200"/>
+          <a:ext cx="1600200" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1662,10 +1762,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1778,7 +1878,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="12.75">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
@@ -1962,15 +2062,11 @@
     <row r="21" spans="1:8">
       <c r="H21" s="3"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="G25">
-        <v>2</v>
-      </c>
+      <c r="D25" s="27"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
+      <c r="D26" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
